--- a/data/metadata/schema.xlsx
+++ b/data/metadata/schema.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abi62\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GSP\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2367CB31-C23A-4847-8355-ECB9A4920368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F708F499-9DC4-4505-9732-20304FA76A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{E8A6F1C4-339F-46EB-BDBF-D5A930E4B256}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ABS" sheetId="1" r:id="rId1"/>
+    <sheet name="RBA" sheetId="3" r:id="rId2"/>
+    <sheet name="Overview" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="319">
   <si>
     <t>field</t>
   </si>
@@ -514,15 +516,928 @@
   <si>
     <t>id="CAPEX"</t>
   </si>
+  <si>
+    <t xml:space="preserve">Actual Expenditure ;  Total (State) ;  Total (Type of Asset - Detailed Level) ;  Current Price ;  Total, including Education and Health ;
+A124797523W
+Actual Expenditure ;  Total (State) ;  Total (Type of Asset - Detailed Level) ;  Current Price ;  Mining ;
+A3515137T
+Actual Expenditure ;  Total (State) ;  Total (Type of Asset - Detailed Level) ;  Current Price ;  Manufacturing ;
+A3515140F
+</t>
+  </si>
+  <si>
+    <t>$m</t>
+  </si>
+  <si>
+    <t>capex</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>International Trade in Goods</t>
+  </si>
+  <si>
+    <t>id="ITGS"</t>
+  </si>
+  <si>
+    <t>Balance on goods ;
+A2718594C
+Credits, Total goods ;
+A2718577A
+Debits, Total goods ;
+A2718603V</t>
+  </si>
+  <si>
+    <t>vacancies</t>
+  </si>
+  <si>
+    <t>Job Vacancies</t>
+  </si>
+  <si>
+    <t>id="JV"</t>
+  </si>
+  <si>
+    <t>Job Vacancies ;  New South Wales ;
+A590714V
+Job Vacancies ;  Victoria ;
+A590732X
+Job Vacancies ;  Queensland ;
+A590750C
+Job Vacancies ;  South Australia ;
+A590768A
+Job Vacancies ;  Western Australia ;
+A590786F
+Job Vacancies ;  Tasmania ;
+A590804X
+Job Vacancies ;  Northern Territory ;
+A590822C
+Job Vacancies ;  Australian Capital Territory ;
+A590840J
+Job Vacancies ;  Australia ;
+A590696A</t>
+  </si>
+  <si>
+    <t>Monthly Business Turnover Indicator</t>
+  </si>
+  <si>
+    <t>exports_goods_value, imports_goods_value</t>
+  </si>
+  <si>
+    <t>Discard the percentage change tables (since they’re derivable).</t>
+  </si>
+  <si>
+    <t>Business turnover indicator ; Index ; All industries aggregate ; Australia ;
+A3623919K
+Business turnover indicator ; Index ; Retail trade ; Australia ;
+A3623925V
+Business turnover indicator ; Index ; Accommodation and food services ; Australia ;
+A3623926W
+Business turnover indicator ; Index ; Construction ; Australia ;
+A3623922C
+Business turnover indicator ; Index ; Manufacturing ; Australia ;
+A3623921A
+Business turnover indicator ; Index ; Transport, postal and warehousing ; Australia ;
+A3623927X</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>One-click download (latest release)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t>Retail Trade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – turnover by state/industry</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/statistics/industry/retail-and-wholesale-trade/retail-trade-australia/jun-2025/All-Time-Series-Spreadsheets.zip (Australian Bureau of Statistics)</t>
+  </si>
+  <si>
+    <t>Complete zip (Tables 1-23). Publication now ceased – ABS recommends the MHSI going forward.</t>
+  </si>
+  <si>
+    <t>Monthly Household Spending Indicator</t>
+  </si>
+  <si>
+    <t>Page: https://www.abs.gov.au/statistics/economy/finance/monthly-household-spending-indicator/latest-release (download buttons in “Total Household Spending” &amp; “Data downloads”) (Australian Bureau of Statistics)</t>
+  </si>
+  <si>
+    <t>CSV/XLSX for total + nine categories.</t>
+  </si>
+  <si>
+    <t>Building Approvals</t>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/statistics/industry/building-and-construction/building-approvals-australia/jun-2025/Download%20all.zip (Australian Bureau of Statistics)</t>
+  </si>
+  <si>
+    <t>Zip (~2.8 MB) with 60-plus state/sector tables.</t>
+  </si>
+  <si>
+    <t>International Trade in Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Page: https://www.abs.gov.au/statistics/economy/international-trade/international-trade-goods/latest-release#data-downloads (Australian Bureau of Statistics)</t>
+  </si>
+  <si>
+    <t>Monthly balance-of-payments-basis CSV/XLSX; table codes FT, FTS, FTI.</t>
+  </si>
+  <si>
+    <t>Monthly CPI Indicator</t>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/statistics/economy/price-indexes-and-inflation/monthly-consumer-price-index-indicator/jun-2025/Download%20all.zip (Australian Bureau of Statistics)</t>
+  </si>
+  <si>
+    <t>Contains Tables 1-2 for index numbers &amp; %-changes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Page: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://www.abs.gov.au/statistics/labour/jobs/job-vacancies-australia/latest-release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → “Download all” button</t>
+    </r>
+  </si>
+  <si>
+    <t>Quarterly; still useful for now-cast regressors.</t>
+  </si>
+  <si>
+    <t>State Final Demand (Chain Volume)</t>
+  </si>
+  <si>
+    <t>API: https://api.data.abs.gov.au/data/ABS,SFD,1.0.0/AUS.Q?detail=code&amp;format=CSV (replace AUS with state codes) (api.gov.au)</t>
+  </si>
+  <si>
+    <t>SDMX call to ABS Data API.</t>
+  </si>
+  <si>
+    <t>Latest file</t>
+  </si>
+  <si>
+    <t>Frequency / coverage</t>
+  </si>
+  <si>
+    <t>NAB Monthly Business Survey</t>
+  </si>
+  <si>
+    <t>June-25 PDF https://business.nab.com.au/wp-content/uploads/2025/07/NAB-Monthly-Business-Survey-June-2025.pdf (Business Research and Insights)</t>
+  </si>
+  <si>
+    <t>Contains csv-style tables at end of report; NAB release a CSV to subscribers only, so scrape or manual parse.</t>
+  </si>
+  <si>
+    <t>Westpac–Melbourne Institute Consumer Sentiment</t>
+  </si>
+  <si>
+    <t>July-25 bulletin web page https://melbourneinstitute.unimelb.edu.au/publications/macroeconomic-reports/latest-news/index-of-consumer-sentiment (pdf link inside) (melbourneinstitute.unimelb.edu.au)</t>
+  </si>
+  <si>
+    <t>Historical index levels also downloadable in XLS at bottom of page.</t>
+  </si>
+  <si>
+    <t>ANZ–Indeed Job Ads</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSV: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://cdn-au.indeed.com/static/site_jobtrendstmp/anz-job-ads.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>Weekly index of online job ads.</t>
+  </si>
+  <si>
+    <t>SEEK Job Ads</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XLSX: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://seek.com.au/analysis/seek-employment-report-june-2025.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Monthly; state-level vacancies.</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Direct CSV</t>
+  </si>
+  <si>
+    <t>Table No.</t>
+  </si>
+  <si>
+    <t>Cash-rate target history</t>
+  </si>
+  <si>
+    <t>https://www.rba.gov.au/statistics/tables/xls/f1.1-data.xls</t>
+  </si>
+  <si>
+    <t>F1.1 (Reuters)</t>
+  </si>
+  <si>
+    <t>Lending indicators (housing &amp; business credit aggregates)</t>
+  </si>
+  <si>
+    <t>https://www.rba.gov.au/statistics/tables/xls/d2-hist.xls</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Govt bond yields (constant-maturity)</t>
+  </si>
+  <si>
+    <t>https://www.rba.gov.au/statistics/tables/xls/f2-hist.xls</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>RBA Commodity Price Index (A$, SDR)</t>
+  </si>
+  <si>
+    <t>https://www.rba.gov.au/statistics/tables/xls/g1.xls</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Trade-Weighted Index</t>
+  </si>
+  <si>
+    <t>https://www.rba.gov.au/statistics/tables/xls/f15.1-data.xls</t>
+  </si>
+  <si>
+    <t>F15.1</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>CoreLogic Home Value Index (daily &amp; monthly)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Free sample CSV (major capitals): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://www.corelogic.com.au/wp-content/uploads/2025/07/corelogic-home-value-index-daily.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>Full history is commercial, but sample series are often sufficient for now-casts.</t>
+  </si>
+  <si>
+    <t>ABS Residential Property Price Indexes</t>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/statistics/economy/price-indexes-and-inflation/residential-property-price-indexes-eight-capital-cities/mar-2025/Data%20downloads/Download%20all.zip</t>
+  </si>
+  <si>
+    <t>Quarterly; useful for benchmarking.</t>
+  </si>
+  <si>
+    <t>Source link</t>
+  </si>
+  <si>
+    <t>Net interstate &amp; overseas migration</t>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/statistics/people/population/migration-australia/2023-24/Download%20all.zip</t>
+  </si>
+  <si>
+    <t>Internet Vacancy Index (DEWR/LMIP)</t>
+  </si>
+  <si>
+    <t>https://lmip.gov.au/sites/default/files/2025-07/IVI_data_2025_06.xlsx</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>monthlyhsi</t>
+  </si>
+  <si>
+    <t>Monthly household  spending indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household spending ;  Total (Household Spending Categories) ;  Australia ;  Current Price ;
+A130207496V
+Household spending ;  Total (Household Spending Categories) ;  New South Wales ;  Current Price ;
+A130210184T
+Household spending ;  Total (Household Spending Categories) ;  Victoria ;  Current Price ;
+A130208264A
+Household spending ;  Total (Household Spending Categories) ;  Queensland ;  Current Price ;
+A130209800L
+Household spending ;  Total (Household Spending Categories) ;  South Australia ;  Current Price ;
+A130210568C
+Household spending ;  Total (Household Spending Categories) ;  Western Australia ;  Current Price ;
+A130208648L
+Household spending ;  Total (Household Spending Categories) ;  Tasmania ;  Current Price ;
+A130209032J
+Household spending ;  Total (Household Spending Categories) ;  Northern Territory ;  Current Price ;
+A130209416V
+Household spending ;  Total (Household Spending Categories) ;  Australian Capital Territory ;  Current Price ;
+A130207880L
+Turnover ;  Total (Industry) ;  Australia ;  Current Price ;
+A130277416L
+</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>id="CPI"</t>
+  </si>
+  <si>
+    <t>Consumer Price Index (CPI) 17th Series</t>
+  </si>
+  <si>
+    <t>id="BWD",
+Table 01: Business turnover indicator, 13-industry summary - Monthly percentage change and index</t>
+  </si>
+  <si>
+    <t>id="HSI_M",
+Household Spending Indicator ; Current price ; New South Wales ; Total household spending ;
+MHSI_NSW_CP
+Household Spending Indicator ; Current price ; Victoria ; Total household spending ;
+MHSI_VIC_CP
+Household Spending Indicator ; Current price ; Queensland ; Total household spending ;
+MHSI_QLD_CP
+Household Spending Indicator ; Current price ; South Australia ; Total household spending ;
+MHSI_SA_CP
+Household Spending Indicator ; Current price ; Western Australia ; Total household spending ;
+MHSI_WA_CP
+Household Spending Indicator ; Current price ; Tasmania ; Total household spending ;
+MHSI_TAS_CP
+Household Spending Indicator ; Current price ; Northern Territory ; Total household spending ;
+MHSI_NT_CP
+Household Spending Indicator ; Current price ; Australian Capital Territory ; Total household spending ;
+MHSI_ACT_CP</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>label_cues</t>
+  </si>
+  <si>
+    <t>aggregation_rule</t>
+  </si>
+  <si>
+    <t>index_base_info</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>rba</t>
+  </si>
+  <si>
+    <t>F1.1</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>raw_cash_rate_daily</t>
+  </si>
+  <si>
+    <t>Cash rate target (%), daily observations as published by RBA.</t>
+  </si>
+  <si>
+    <t>Cash rate target; percent; daily</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>average and end-of-quarter both kept</t>
+  </si>
+  <si>
+    <t>none (raw to quarterly average and EOP)</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Use quarterly average as main stance; EOP kept for dummy construction.</t>
+  </si>
+  <si>
+    <t>derived</t>
+  </si>
+  <si>
+    <t>rba_policy_cash_avg</t>
+  </si>
+  <si>
+    <t>Cash rate, quarterly average (%, policy stance level).</t>
+  </si>
+  <si>
+    <t>average (quarterly)</t>
+  </si>
+  <si>
+    <t>avg over quarter</t>
+  </si>
+  <si>
+    <t>quarterly average of raw_cash_rate_daily</t>
+  </si>
+  <si>
+    <t>rba_policy_cash_eop</t>
+  </si>
+  <si>
+    <t>Cash rate at end-of-quarter (%, stance level at quarter close).</t>
+  </si>
+  <si>
+    <t>end-of-quarter</t>
+  </si>
+  <si>
+    <t>EOP selection</t>
+  </si>
+  <si>
+    <t>last available daily obs in quarter of raw_cash_rate_daily</t>
+  </si>
+  <si>
+    <t>Use to build tightening/loosening dummies.</t>
+  </si>
+  <si>
+    <t>rba_policy_cash_dq</t>
+  </si>
+  <si>
+    <t>Quarter-on-quarter change in cash rate (percentage points).</t>
+  </si>
+  <si>
+    <t>Cash rate target; percent</t>
+  </si>
+  <si>
+    <t>p.p.</t>
+  </si>
+  <si>
+    <t>average first, then difference</t>
+  </si>
+  <si>
+    <t>Î” (q/q) of rba_policy_cash_avg</t>
+  </si>
+  <si>
+    <t>rba_policy_cash_avg[t] - rba_policy_cash_avg[t-1]</t>
+  </si>
+  <si>
+    <t>rba_tightening_4q</t>
+  </si>
+  <si>
+    <t>Tightening-cycle dummy: 1 if sum of cash Î” over last 4 quarters â‰¥ +100bp.</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>derived from quarterly series</t>
+  </si>
+  <si>
+    <t>indicator rule</t>
+  </si>
+  <si>
+    <t>1{ Î£_{i=0..3} rba_policy_cash_dq[t-i] â‰¥ 1.00 }</t>
+  </si>
+  <si>
+    <t>raw_yield_3y_daily</t>
+  </si>
+  <si>
+    <t>Commonwealth Government Securities yield, 3-year constant maturity (%), daily.</t>
+  </si>
+  <si>
+    <t>3-year CGS; constant maturity; percent; daily</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>none (raw to quarterly average)</t>
+  </si>
+  <si>
+    <t>raw_yield_10y_daily</t>
+  </si>
+  <si>
+    <t>Commonwealth Government Securities yield, 10-year constant maturity (%), daily.</t>
+  </si>
+  <si>
+    <t>10-year CGS; constant maturity; percent; daily</t>
+  </si>
+  <si>
+    <t>rba_yield_3y_avg</t>
+  </si>
+  <si>
+    <t>3-year CGS yield, quarterly average (%, level).</t>
+  </si>
+  <si>
+    <t>3-year CGS; percent</t>
+  </si>
+  <si>
+    <t>quarterly average of raw_yield_3y_daily</t>
+  </si>
+  <si>
+    <t>rba_yield_10y_avg</t>
+  </si>
+  <si>
+    <t>10-year CGS yield, quarterly average (%, level).</t>
+  </si>
+  <si>
+    <t>10-year CGS; percent</t>
+  </si>
+  <si>
+    <t>quarterly average of raw_yield_10y_daily</t>
+  </si>
+  <si>
+    <t>F2 + F1.1</t>
+  </si>
+  <si>
+    <t>rba_term_spread_10y_cash</t>
+  </si>
+  <si>
+    <t>Term spread: 10-year yield minus cash rate (p.p.).</t>
+  </si>
+  <si>
+    <t>10-year yield; cash rate; spread</t>
+  </si>
+  <si>
+    <t>rba_yield_10y_avg - rba_policy_cash_avg</t>
+  </si>
+  <si>
+    <t>rba_term_spread_3y_cash</t>
+  </si>
+  <si>
+    <t>Term spread: 3-year yield minus cash rate (p.p.).</t>
+  </si>
+  <si>
+    <t>3-year yield; cash rate; spread</t>
+  </si>
+  <si>
+    <t>rba_yield_3y_avg - rba_policy_cash_avg</t>
+  </si>
+  <si>
+    <t>raw_credit_hh_monthly</t>
+  </si>
+  <si>
+    <t>Housing credit outstanding (A$ billion), total households, monthly.</t>
+  </si>
+  <si>
+    <t>Credit; housing; outstanding; $bn; monthly</t>
+  </si>
+  <si>
+    <t>A$ bn</t>
+  </si>
+  <si>
+    <t>none (raw to quarterly avg)</t>
+  </si>
+  <si>
+    <t>raw_credit_bus_monthly</t>
+  </si>
+  <si>
+    <t>Business credit outstanding (A$ billion), monthly.</t>
+  </si>
+  <si>
+    <t>Credit; business; outstanding; $bn; monthly</t>
+  </si>
+  <si>
+    <t>rba_credit_hh_gq</t>
+  </si>
+  <si>
+    <t>Housing credit growth, Î”log QoQ.</t>
+  </si>
+  <si>
+    <t>Housing credit; growth</t>
+  </si>
+  <si>
+    <t>Î”log</t>
+  </si>
+  <si>
+    <t>average first, then Î”log</t>
+  </si>
+  <si>
+    <t>Î”log of quarterly average</t>
+  </si>
+  <si>
+    <t>log(avg_q(raw_credit_hh_monthly)) - log(avg_q(raw_credit_hh_monthly)[t-1])</t>
+  </si>
+  <si>
+    <t>rba_credit_hh_gy</t>
+  </si>
+  <si>
+    <t>Housing credit growth, Î”log YoY.</t>
+  </si>
+  <si>
+    <t>Î”log vs same quarter a year earlier</t>
+  </si>
+  <si>
+    <t>log(avg_q(raw_credit_hh_monthly)) - log(avg_q(raw_credit_hh_monthly)[t-4])</t>
+  </si>
+  <si>
+    <t>rba_credit_hh_impulse</t>
+  </si>
+  <si>
+    <t>Housing credit impulse: change in YoY growth.</t>
+  </si>
+  <si>
+    <t>Housing credit; impulse</t>
+  </si>
+  <si>
+    <t>Î”Î”log</t>
+  </si>
+  <si>
+    <t>from YoY growth</t>
+  </si>
+  <si>
+    <t>Î” (rba_credit_hh_gy)</t>
+  </si>
+  <si>
+    <t>rba_credit_hh_gy[t] - rba_credit_hh_gy[t-1]</t>
+  </si>
+  <si>
+    <t>rba_credit_bus_gq</t>
+  </si>
+  <si>
+    <t>Business credit growth, Î”log QoQ.</t>
+  </si>
+  <si>
+    <t>Business credit; growth</t>
+  </si>
+  <si>
+    <t>log(avg_q(raw_credit_bus_monthly)) - log(avg_q(raw_credit_bus_monthly)[t-1])</t>
+  </si>
+  <si>
+    <t>rba_credit_bus_gy</t>
+  </si>
+  <si>
+    <t>Business credit growth, Î”log YoY.</t>
+  </si>
+  <si>
+    <t>log(avg_q(raw_credit_bus_monthly)) - log(avg_q(raw_credit_bus_monthly)[t-4])</t>
+  </si>
+  <si>
+    <t>rba_credit_bus_impulse</t>
+  </si>
+  <si>
+    <t>Business credit impulse: change in YoY growth.</t>
+  </si>
+  <si>
+    <t>Business credit; impulse</t>
+  </si>
+  <si>
+    <t>Î” (rba_credit_bus_gy)</t>
+  </si>
+  <si>
+    <t>rba_credit_bus_gy[t] - rba_credit_bus_gy[t-1]</t>
+  </si>
+  <si>
+    <t>raw_commod_index_aud_monthly</t>
+  </si>
+  <si>
+    <t>RBA Commodity Price Index in A$, monthly index.</t>
+  </si>
+  <si>
+    <t>Commodity Price Index; A$; monthly; index</t>
+  </si>
+  <si>
+    <t>record index base year from RBA table</t>
+  </si>
+  <si>
+    <t>rba_commod_idx_level</t>
+  </si>
+  <si>
+    <t>Commodity Price Index in A$, quarterly average (level).</t>
+  </si>
+  <si>
+    <t>Commodity Price Index; A$; index</t>
+  </si>
+  <si>
+    <t>record index base year</t>
+  </si>
+  <si>
+    <t>quarterly average of raw_commod_index_aud_monthly</t>
+  </si>
+  <si>
+    <t>rba_commod_gq</t>
+  </si>
+  <si>
+    <t>Commodity prices Î”log QoQ (A$ index).</t>
+  </si>
+  <si>
+    <t>Commodity index; growth</t>
+  </si>
+  <si>
+    <t>log(rba_commod_idx_level[t]) - log(rba_commod_idx_level[t-1])</t>
+  </si>
+  <si>
+    <t>rba_commod_gy</t>
+  </si>
+  <si>
+    <t>Commodity prices Î”log YoY (A$ index).</t>
+  </si>
+  <si>
+    <t>log(rba_commod_idx_level[t]) - log(rba_commod_idx_level[t-4])</t>
+  </si>
+  <si>
+    <t>raw_twi_monthly</t>
+  </si>
+  <si>
+    <t>Trade-Weighted Index (headline), monthly index.</t>
+  </si>
+  <si>
+    <t>Trade-Weighted Index; TWI; monthly; index</t>
+  </si>
+  <si>
+    <t>rba_twi_level</t>
+  </si>
+  <si>
+    <t>Trade-Weighted Index, quarterly average (level).</t>
+  </si>
+  <si>
+    <t>TWI; index</t>
+  </si>
+  <si>
+    <t>quarterly average of raw_twi_monthly</t>
+  </si>
+  <si>
+    <t>rba_twi_gq</t>
+  </si>
+  <si>
+    <t>TWI Î”log QoQ.</t>
+  </si>
+  <si>
+    <t>TWI; growth</t>
+  </si>
+  <si>
+    <t>log(rba_twi_level[t]) - log(rba_twi_level[t-1])</t>
+  </si>
+  <si>
+    <t>rba_twi_gy</t>
+  </si>
+  <si>
+    <t>TWI Î”log YoY.</t>
+  </si>
+  <si>
+    <t>log(rba_twi_level[t]) - log(rba_twi_level[t-4])</t>
+  </si>
+  <si>
+    <t>G1 + F15.1</t>
+  </si>
+  <si>
+    <t>rba_ext_price_fx_proxy</t>
+  </si>
+  <si>
+    <t>External price tailwind proxy: Î”log(Commodity A$) âˆ’ Î”log(TWI), QoQ.</t>
+  </si>
+  <si>
+    <t>Commodity index; TWI; growth; spread</t>
+  </si>
+  <si>
+    <t>average first, then difference of growth rates</t>
+  </si>
+  <si>
+    <t>rba_commod_gq - rba_twi_gq</t>
+  </si>
+  <si>
+    <t>record both indices base years</t>
+  </si>
+  <si>
+    <t>Î”log(commod A$) - Î”log(TWI) using quarterly averages</t>
+  </si>
+  <si>
+    <t>Positive values indicate stronger commodity prices net of FX appreciation.</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>State Final Demand</t>
+  </si>
+  <si>
+    <t>Table 25. State Final Demand, Summary Components by State: Chain volume measures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New South Wales ;  STATE FINAL DEMAND ;
+A2303111F
+Victoria ;  STATE FINAL DEMAND ;
+A2303139J
+Queensland ;  STATE FINAL DEMAND ;
+A2303187A
+South Australia ;  STATE FINAL DEMAND ;
+A2302956R
+Western Australia ;  STATE FINAL DEMAND ;
+A2302984X
+Tasmania ;  STATE FINAL DEMAND ;
+A2303012X
+Northern Territory ;  STATE FINAL DEMAND ;
+A2303040J
+Australian Capital Territory ;  STATE FINAL DEMAND ;
+A2303068K
+</t>
+  </si>
+  <si>
+    <t>$ m</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Gross domestic produt per capita</t>
+  </si>
+  <si>
+    <t>GDP per capita: Chain volume measures ;
+A2304404C
+Gross domestic product: Current prices ;
+A2304418T</t>
+  </si>
+  <si>
+    <t>Table 1. Key National Accounts Aggregates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +1458,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -561,10 +1484,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -579,12 +1503,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -917,12 +1852,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95308B8B-C7A2-48A4-9F59-0742AA51AEFC}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -935,10 +1870,16 @@
     <col min="6" max="6" width="27.07421875" customWidth="1"/>
     <col min="7" max="7" width="28.07421875" customWidth="1"/>
     <col min="8" max="8" width="28.765625" customWidth="1"/>
-    <col min="9" max="9" width="22.4609375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.61328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.15234375" customWidth="1"/>
+    <col min="11" max="11" width="27.4609375" customWidth="1"/>
+    <col min="12" max="12" width="23.69140625" customWidth="1"/>
+    <col min="13" max="13" width="37.3828125" customWidth="1"/>
+    <col min="14" max="14" width="19.23046875" customWidth="1"/>
+    <col min="15" max="15" width="25.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.75">
+    <row r="2" spans="1:15" ht="43.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -971,20 +1912,74 @@
       <c r="H2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="2"/>
+      <c r="C3" s="6">
+        <v>8501</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6401</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6202</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6345</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8731</v>
+      </c>
       <c r="H3" s="6">
         <v>8755</v>
       </c>
       <c r="I3" s="7">
         <v>5625</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="67.75" customHeight="1">
+      <c r="J3" s="6">
+        <v>5368</v>
+      </c>
+      <c r="K3" s="6">
+        <v>6354</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="67.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -994,10 +1989,13 @@
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1009,8 +2007,26 @@
       <c r="I4" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="29.15">
+      <c r="J4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="409.6">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1020,6 +2036,9 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
@@ -1035,8 +2054,26 @@
       <c r="I5" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6">
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="409.6">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +2098,29 @@
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="29.15">
+      <c r="I6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1084,8 +2142,11 @@
       <c r="H7" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29.15">
+    <row r="9" spans="1:15" ht="29.15">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1126,8 +2187,26 @@
       <c r="H10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="29.15">
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="29.15">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +2214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27">
+    <row r="12" spans="1:15" ht="27">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1151,8 +2230,29 @@
       <c r="H12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="29.15">
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>314</v>
+      </c>
+      <c r="O12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="29.15">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +2260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1182,8 +2282,23 @@
       <c r="H14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1191,15 +2306,1731 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29.15">
+    <row r="16" spans="1:15" ht="130.30000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="L16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BAF6D2-9FD2-4362-9571-7FE0C1E098B7}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="4" max="4" width="29.61328125" customWidth="1"/>
+    <col min="5" max="5" width="29.53515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="11" max="11" width="30.3828125" customWidth="1"/>
+    <col min="12" max="12" width="35.23046875" customWidth="1"/>
+    <col min="16" max="16" width="32.23046875" customWidth="1"/>
+    <col min="17" max="17" width="44.765625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="27.3046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="43.75">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="73.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="43.75">
+      <c r="A6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="43.75">
+      <c r="A7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="43.75">
+      <c r="A8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="43.75">
+      <c r="A13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="43.75">
+      <c r="A14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="4" customFormat="1" ht="29.15">
+      <c r="A26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="4" customFormat="1">
+      <c r="A27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="4" customFormat="1" ht="43.75">
+      <c r="A29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8351C657-410F-4FB6-88E9-637E4890D234}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="1" max="3" width="37.07421875" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72.900000000000006">
+      <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="102">
+      <c r="A3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72.900000000000006">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72.900000000000006">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72.900000000000006">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="56.15">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="58.3">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72.900000000000006">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72.900000000000006">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39.450000000000003">
+      <c r="A15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.15">
+      <c r="A20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.15">
+      <c r="A21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.9">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.9">
+      <c r="A23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.9">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="51.9">
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="49.75">
+      <c r="A28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="37.299999999999997">
+      <c r="A32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="24.9">
+      <c r="A33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="Retail Trade, Australia, June 2025 | Australian Bureau of Statistics" display="https://www.abs.gov.au/statistics/industry/retail-and-wholesale-trade/retail-trade-australia/latest-release" xr:uid="{911F5D10-2122-4E6C-8214-ACF167C9EF21}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="Monthly Household Spending Indicator, May 2025 | Australian Bureau of Statistics" display="https://www.abs.gov.au/statistics/economy/finance/monthly-household-spending-indicator/latest-release" xr:uid="{A2A460DD-8000-4DFF-8481-E9160159256B}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="Building Approvals, Australia, June 2025 | Australian Bureau of Statistics" display="https://www.abs.gov.au/statistics/industry/building-and-construction/building-approvals-australia/jun-2025" xr:uid="{7DEC2ECA-DE17-4830-A1CD-42B11A9B230E}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="International Trade in Goods - Australian Bureau of Statistics" display="https://www.abs.gov.au/statistics/economy/international-trade/international-trade-goods/latest-release?utm_source=chatgpt.com" xr:uid="{9A0D86B2-BD51-4645-8EF9-3409D5613F0F}"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="Monthly Consumer Price Index Indicator, June 2025 | Australian Bureau of Statistics" display="https://www.abs.gov.au/statistics/economy/price-indexes-and-inflation/monthly-consumer-price-index-indicator/jun-2025" xr:uid="{2F18C065-1804-484D-ADA2-16079EA98DBB}"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="Swagger UI - API" display="https://api.gov.au/assets/APIs/abs/DataAPI.openapi.html?utm_source=chatgpt.com" xr:uid="{D4CB31C6-D757-4FA3-818F-78779A078090}"/>
+    <hyperlink ref="B13" r:id="rId7" tooltip="NAB Monthly Business Survey June-25" display="https://business.nab.com.au/wp-content/uploads/2025/07/NAB-Monthly-Business-Survey-June-2025.pdf?utm_source=chatgpt.com" xr:uid="{B56A0F12-0E34-401E-A655-0CD9B16C3967}"/>
+    <hyperlink ref="B14" r:id="rId8" tooltip="Consumer Sentiment - Melbourne Institute: Applied Economic &amp; Social ..." display="https://melbourneinstitute.unimelb.edu.au/publications/macroeconomic-reports/latest-news/index-of-consumer-sentiment?utm_source=chatgpt.com" xr:uid="{D7320AD1-ECEC-4310-9B7B-4AAEA8A84508}"/>
+    <hyperlink ref="B20" r:id="rId9" tooltip="Australia Q2 inflation surprises on low side, heralds rate cut" display="https://www.reuters.com/world/asia-pacific/australia-q2-inflation-surprises-low-side-heralds-rate-cut-2025-07-30/?utm_source=chatgpt.com" xr:uid="{4D0BDDF1-1D30-4508-84C6-187D061445CF}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{5B4B3476-1756-4DD0-B659-43988D76DB00}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>